--- a/backend/table51.xlsx
+++ b/backend/table51.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>5.1.1</t>
   </si>
   <si>
-    <t>р</t>
+    <t>Hello World!</t>
   </si>
   <si>
     <t>Призовые места по итогам командного первенства в номинациях</t>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Гран При</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Приз за отдельные достижения</t>
@@ -567,40 +570,40 @@
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
